--- a/data/output/FV2410_FV2404/UTILMD/55177.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55177.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3614" uniqueCount="305">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3635" uniqueCount="305">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1049,6 +1049,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U153" totalsRowShown="0">
+  <autoFilter ref="A1:U153"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1338,7 +1368,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8936,5 +8969,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55177.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55177.xlsx
@@ -1953,7 +1953,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4499,7 +4499,7 @@
         <v>277</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4661,7 +4661,7 @@
         <v>278</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -5031,7 +5031,7 @@
         <v>280</v>
       </c>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -5401,7 +5401,7 @@
         <v>282</v>
       </c>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -5771,7 +5771,7 @@
         <v>284</v>
       </c>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -6141,7 +6141,7 @@
         <v>286</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -6511,7 +6511,7 @@
         <v>287</v>
       </c>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -7081,7 +7081,7 @@
         <v>289</v>
       </c>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -7501,7 +7501,7 @@
         <v>292</v>
       </c>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -7975,7 +7975,7 @@
         <v>294</v>
       </c>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -8169,54 +8169,54 @@
       </c>
     </row>
     <row r="121" spans="1:22">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="C121" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D121" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5" t="s">
+      <c r="E121" s="2"/>
+      <c r="F121" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
-      <c r="I121" s="5"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
       <c r="J121" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="K121" s="5" t="s">
+      <c r="K121" s="2" t="s">
         <v>295</v>
       </c>
       <c r="L121" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="M121" s="5" t="s">
+      <c r="M121" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N121" s="5" t="s">
+      <c r="N121" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O121" s="5" t="s">
+      <c r="O121" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="P121" s="5"/>
-      <c r="Q121" s="5" t="s">
+      <c r="P121" s="2"/>
+      <c r="Q121" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="R121" s="5"/>
-      <c r="S121" s="5"/>
-      <c r="T121" s="5"/>
+      <c r="R121" s="2"/>
+      <c r="S121" s="2"/>
+      <c r="T121" s="2"/>
       <c r="U121" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="V121" s="5" t="s">
+      <c r="V121" s="2" t="s">
         <v>295</v>
       </c>
     </row>
@@ -8417,7 +8417,7 @@
         <v>297</v>
       </c>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -8579,7 +8579,7 @@
         <v>298</v>
       </c>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -8729,7 +8729,7 @@
         <v>299</v>
       </c>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -8895,7 +8895,7 @@
         <v>300</v>
       </c>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -9057,7 +9057,7 @@
         <v>301</v>
       </c>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -9207,7 +9207,7 @@
         <v>302</v>
       </c>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -9373,7 +9373,7 @@
         <v>303</v>
       </c>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -9533,7 +9533,7 @@
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -9793,7 +9793,7 @@
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N151" s="2"/>
